--- a/expimp/workstage.xlsx
+++ b/expimp/workstage.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fa800bc9-c25d-4825-abbb-a6a1039d6518</t>
+          <t>81841461-6f95-42f6-afe4-d94879df2c3f</t>
         </is>
       </c>
     </row>
